--- a/biology/Zoologie/Cophosaurus_texanus/Cophosaurus_texanus.xlsx
+++ b/biology/Zoologie/Cophosaurus_texanus/Cophosaurus_texanus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cophosaurus texanus, unique représentant du genre Cophosaurus, est une espèce de sauriens de la famille des Phrynosomatidae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cophosaurus texanus, unique représentant du genre Cophosaurus, est une espèce de sauriens de la famille des Phrynosomatidae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Cette espèce se rencontre[1] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Cette espèce se rencontre :
 aux États-Unis dans le sud-ouest de l'Arizona, dans l'ouest du Texas, dans l'Oklahoma et dans le sud du Nouveau-Mexique ;
 au Mexique dans le nord-est du Sonora, dans le nord du Chihuahua, dans le Nord-Est du Durango, dans le Coahuila, dans le Nuevo León, dans l'ouest du Tamaulipas, dans le Nord du Zacatecas et dans le Nord du San Luis Potosí.</t>
         </is>
@@ -543,9 +557,11 @@
           <t>Liste des sous-espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Selon The Reptile Database   (18 février 2013)[2] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Selon The Reptile Database   (18 février 2013) :
 Cophosaurus texanus reticulatus (Peters, 1951)
 Cophosaurus texanus scitulus (Peters, 1951)
 Cophosaurus texanus texanus Troschel, 1852</t>
@@ -576,7 +592,9 @@
           <t>Publications originales</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Troschel, 1852 "1850" : Cophosaurus texanus, neue Eidechsengattung aus Texas. Archiv für Naturgeschichte, vol. 16, no 1, p. 388-394 (texte intégral).
 Peters, 1951 : Studies on the lizard Holbrookia texana (Troschel) with descriptions of two new subspecies. Occasional Papers of the Museum of Zoology, University of Michigan, no 537, p. 1-20 (texte intégral).</t>
